--- a/teaching/traditional_assets/database/data/mauritius/mauritius_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/mauritius/mauritius_investments_asset_management.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0426</v>
+        <v>-0.00639</v>
       </c>
       <c r="E2">
-        <v>0.199</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="G2">
-        <v>0.2275435886117855</v>
+        <v>-0.1877271672724461</v>
       </c>
       <c r="H2">
-        <v>0.2275435886117855</v>
+        <v>-0.1877271672724461</v>
       </c>
       <c r="I2">
-        <v>0.4762350445925003</v>
+        <v>1.824800866135643</v>
       </c>
       <c r="J2">
-        <v>0.4610896614774999</v>
+        <v>1.823468894700508</v>
       </c>
       <c r="K2">
-        <v>24.973</v>
+        <v>-76.39</v>
       </c>
       <c r="L2">
-        <v>0.5511586846170824</v>
+        <v>2.953754543345449</v>
       </c>
       <c r="M2">
-        <v>10.2711</v>
+        <v>3.21066</v>
       </c>
       <c r="N2">
-        <v>0.01546456479515787</v>
+        <v>0.004863973094578012</v>
       </c>
       <c r="O2">
-        <v>0.4112881912465463</v>
+        <v>-0.04202984683859144</v>
       </c>
       <c r="P2">
-        <v>6.231100000000001</v>
+        <v>3.21066</v>
       </c>
       <c r="Q2">
-        <v>0.009381784784016143</v>
+        <v>0.004863973094578012</v>
       </c>
       <c r="R2">
-        <v>0.2495134745525167</v>
+        <v>-0.04202984683859144</v>
       </c>
       <c r="S2">
-        <v>4.04</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.393336643592215</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>8.584</v>
+        <v>7.527</v>
       </c>
       <c r="V2">
-        <v>0.01292440188505955</v>
+        <v>0.01140299050129528</v>
       </c>
       <c r="W2">
-        <v>0.02421349504368808</v>
+        <v>-0.09023778462998103</v>
       </c>
       <c r="X2">
-        <v>0.056993373674201</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="Y2">
-        <v>-0.03277987863051292</v>
+        <v>-0.1339842687240736</v>
       </c>
       <c r="Z2">
-        <v>0.03546807266957362</v>
+        <v>-0.01909387168079523</v>
       </c>
       <c r="AA2">
-        <v>0.0148737594116311</v>
+        <v>-0.00415563108796092</v>
       </c>
       <c r="AB2">
-        <v>0.05674668574742944</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="AC2">
-        <v>-0.04353401380965943</v>
+        <v>-0.04930217260413078</v>
       </c>
       <c r="AD2">
-        <v>62.3</v>
+        <v>56.81</v>
       </c>
       <c r="AE2">
-        <v>0.4239506475690651</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>62.72395064756906</v>
+        <v>56.81</v>
       </c>
       <c r="AG2">
-        <v>54.13995064756907</v>
+        <v>49.283</v>
       </c>
       <c r="AH2">
-        <v>0.08629037370814559</v>
+        <v>0.07924396708048542</v>
       </c>
       <c r="AI2">
-        <v>0.04495296638351181</v>
+        <v>0.04910494334045</v>
       </c>
       <c r="AJ2">
-        <v>0.07537129424249371</v>
+        <v>0.06947402847303182</v>
       </c>
       <c r="AK2">
-        <v>0.039041170352298</v>
+        <v>0.04287778747380117</v>
       </c>
       <c r="AL2">
-        <v>2.525</v>
+        <v>2.852</v>
       </c>
       <c r="AM2">
-        <v>2.119</v>
+        <v>2.59</v>
       </c>
       <c r="AN2">
-        <v>21.44578313253012</v>
+        <v>18.09812042051609</v>
       </c>
       <c r="AO2">
-        <v>8.480792079207919</v>
+        <v>-16.54733520336606</v>
       </c>
       <c r="AP2">
-        <v>18.63681605768299</v>
+        <v>15.70022300095572</v>
       </c>
       <c r="AQ2">
-        <v>10.10571024067957</v>
+        <v>-18.22123552123552</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Bee Equity Partners Ltd (MUSE:FIDE.I0000)</t>
+          <t>National Investment Trust Ltd (MUSE:NITL.N0000)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,76 +725,79 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0118</v>
+        <v>0.314</v>
       </c>
       <c r="E3">
-        <v>0.236</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="G3">
-        <v>0.2814207650273224</v>
+        <v>0.7563739376770539</v>
       </c>
       <c r="H3">
-        <v>0.2814207650273224</v>
+        <v>0.7563739376770539</v>
       </c>
       <c r="I3">
-        <v>0.6584699453551913</v>
+        <v>0.7762039660056659</v>
       </c>
       <c r="J3">
-        <v>0.6159880133967919</v>
+        <v>0.7716713881019832</v>
       </c>
       <c r="K3">
-        <v>2.22</v>
+        <v>2.72</v>
       </c>
       <c r="L3">
-        <v>0.6065573770491803</v>
+        <v>0.7705382436260624</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.756</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02918918918918919</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.2779411764705882</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.756</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.02918918918918919</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.2779411764705882</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>2.69</v>
+        <v>1.04</v>
       </c>
       <c r="V3">
-        <v>0.3804809052333805</v>
+        <v>0.04015444015444015</v>
       </c>
       <c r="W3">
-        <v>0.1423076923076923</v>
+        <v>0.09543859649122807</v>
       </c>
       <c r="X3">
-        <v>0.05641248386858631</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="Y3">
-        <v>0.08589520843910602</v>
+        <v>0.05169211239713548</v>
       </c>
       <c r="Z3">
-        <v>0.332425068119891</v>
+        <v>0.1316672883252518</v>
       </c>
       <c r="AA3">
-        <v>0.2047698573144649</v>
+        <v>0.1016038791495711</v>
       </c>
       <c r="AB3">
-        <v>0.05641248386858631</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="AC3">
-        <v>0.1483573734458786</v>
+        <v>0.05785739505547847</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -806,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-2.69</v>
+        <v>-1.04</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -815,22 +818,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.6141552511415523</v>
+        <v>-0.0418342719227675</v>
       </c>
       <c r="AK3">
-        <v>-0.1991117690599556</v>
+        <v>-0.03843311160384331</v>
       </c>
       <c r="AL3">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="AM3">
-        <v>-0.07999999999999999</v>
+        <v>0.004</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>301.25</v>
+        <v>685</v>
+      </c>
+      <c r="AP3">
+        <v>-0.3661971830985916</v>
       </c>
       <c r="AQ3">
-        <v>-30.12500000000001</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>National Investment Trust Ltd (MUSE:NITL.N0000)</t>
+          <t>African Rainbow Capital Investments Limited (JSE:AIL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -849,80 +858,71 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.216</v>
-      </c>
-      <c r="E4">
-        <v>0.199</v>
-      </c>
       <c r="G4">
-        <v>0.8142857142857143</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.8142857142857143</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8171428571428571</v>
+        <v>0.9465954606141521</v>
       </c>
       <c r="J4">
-        <v>0.8119999999999999</v>
+        <v>0.9465954606141521</v>
       </c>
       <c r="K4">
-        <v>2.84</v>
+        <v>7.09</v>
       </c>
       <c r="L4">
-        <v>0.8114285714285714</v>
+        <v>0.9465954606141521</v>
       </c>
       <c r="M4">
-        <v>0.824</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.03695067264573991</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.2901408450704225</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>0.824</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.03695067264573991</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.2901408450704225</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>1.69</v>
+        <v>1.1</v>
       </c>
       <c r="V4">
-        <v>0.07578475336322869</v>
+        <v>0.002742458239840439</v>
       </c>
       <c r="W4">
-        <v>0.100709219858156</v>
+        <v>0.01013871013871014</v>
       </c>
       <c r="X4">
-        <v>0.05641248386858631</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="Y4">
-        <v>0.04429673598956971</v>
+        <v>-0.03360777395538246</v>
       </c>
       <c r="Z4">
-        <v>0.133587786259542</v>
+        <v>0.01073681192660551</v>
       </c>
       <c r="AA4">
-        <v>0.1084732824427481</v>
+        <v>0.01016341743119266</v>
       </c>
       <c r="AB4">
-        <v>0.05641248386858631</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="AC4">
-        <v>0.05206079857416178</v>
+        <v>-0.03358306666289994</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-1.69</v>
+        <v>-1.1</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -943,22 +943,16 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.08199902959728288</v>
+        <v>-0.00275</v>
       </c>
       <c r="AK4">
-        <v>-0.06303618052965311</v>
+        <v>-0.001911713590545708</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>-0.5709459459459459</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>African Rainbow Capital Investments Limited (JSE:AIL)</t>
+          <t>Bravura Holdings Limited (NMSE:CMB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,22 +972,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0.1057507987220447</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0.1057507987220447</v>
       </c>
       <c r="I5">
-        <v>0.9742268041237113</v>
+        <v>0.004792332268370607</v>
       </c>
       <c r="J5">
-        <v>0.9742268041237113</v>
+        <v>0.004792332268370607</v>
       </c>
       <c r="K5">
-        <v>18.9</v>
+        <v>-19.8</v>
       </c>
       <c r="L5">
-        <v>0.9742268041237113</v>
+        <v>-3.162939297124601</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1002,7 +996,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1011,67 +1005,79 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.7</v>
+        <v>0.773</v>
       </c>
       <c r="V5">
-        <v>0.005459216441875402</v>
+        <v>0.0483125</v>
       </c>
       <c r="W5">
-        <v>0.02696533028962762</v>
+        <v>-0.5739130434782609</v>
       </c>
       <c r="X5">
-        <v>0.05641248386858631</v>
+        <v>0.04449677157576705</v>
       </c>
       <c r="Y5">
-        <v>-0.02944715357895869</v>
+        <v>-0.6184098150540279</v>
       </c>
       <c r="Z5">
-        <v>0.02776227478927861</v>
+        <v>0.1849881796690307</v>
       </c>
       <c r="AA5">
-        <v>0.02704675224316318</v>
+        <v>0.0008865248226950353</v>
       </c>
       <c r="AB5">
-        <v>0.05641248386858631</v>
+        <v>0.04432140088924682</v>
       </c>
       <c r="AC5">
-        <v>-0.02936573162542313</v>
+        <v>-0.04343487606655178</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AG5">
-        <v>-1.7</v>
+        <v>-0.363</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.02498476538695917</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.0299051787016776</v>
       </c>
       <c r="AJ5">
-        <v>-0.005489183080400388</v>
+        <v>-0.0232141715162755</v>
       </c>
       <c r="AK5">
-        <v>-0.002436926605504587</v>
+        <v>-0.02805905542243179</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-0.151</v>
+      </c>
+      <c r="AN5">
+        <v>0.9601873536299765</v>
+      </c>
+      <c r="AO5">
+        <v>0.75</v>
+      </c>
+      <c r="AP5">
+        <v>-0.8501170960187355</v>
+      </c>
+      <c r="AQ5">
+        <v>-0.1986754966887417</v>
       </c>
     </row>
     <row r="6">
@@ -1082,7 +1088,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EPE Capital Partners Ltd (JSE:EPE)</t>
+          <t>Promotion and Development Ltd (MUSE:PAD.N0000)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1090,32 +1096,35 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D6">
+        <v>-0.00639</v>
+      </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.206015037593985</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.206015037593985</v>
       </c>
       <c r="I6">
-        <v>0.7915632754342431</v>
+        <v>0.08721804511278194</v>
       </c>
       <c r="J6">
-        <v>0.7188585607940446</v>
+        <v>0.08721804511278194</v>
       </c>
       <c r="K6">
-        <v>2.89</v>
+        <v>-5.52</v>
       </c>
       <c r="L6">
-        <v>0.71712158808933</v>
+        <v>-0.4150375939849624</v>
       </c>
       <c r="M6">
-        <v>1.99</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.02383233532934132</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.6885813148788927</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1124,76 +1133,73 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.99</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.253</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V6">
-        <v>0.003029940119760479</v>
+        <v>0.001125827814569536</v>
       </c>
       <c r="W6">
-        <v>0.02235112142304718</v>
+        <v>-0.01826000661594442</v>
       </c>
       <c r="X6">
-        <v>0.06004526904529028</v>
+        <v>0.06146931422170884</v>
       </c>
       <c r="Y6">
-        <v>-0.03769414762224311</v>
+        <v>-0.07972932083765327</v>
       </c>
       <c r="Z6">
-        <v>0.0291602147581077</v>
+        <v>0.03792631458879891</v>
       </c>
       <c r="AA6">
-        <v>0.02096207001345856</v>
+        <v>0.003307859016767423</v>
       </c>
       <c r="AB6">
-        <v>0.05749792519384506</v>
+        <v>0.04896793313231951</v>
       </c>
       <c r="AC6">
-        <v>-0.0365358551803865</v>
+        <v>-0.04566007411555209</v>
       </c>
       <c r="AD6">
-        <v>9.59</v>
+        <v>45.7</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>9.59</v>
+        <v>45.7</v>
       </c>
       <c r="AG6">
-        <v>9.337</v>
+        <v>45.615</v>
       </c>
       <c r="AH6">
-        <v>0.103018584165861</v>
+        <v>0.3770627062706271</v>
       </c>
       <c r="AI6">
-        <v>0.07051989116846827</v>
+        <v>0.1343327454438566</v>
       </c>
       <c r="AJ6">
-        <v>0.1005741245408619</v>
+        <v>0.3766255211988606</v>
       </c>
       <c r="AK6">
-        <v>0.06878743452411649</v>
+        <v>0.1341164018052718</v>
       </c>
       <c r="AL6">
-        <v>0.001</v>
+        <v>2.14</v>
       </c>
       <c r="AM6">
-        <v>0.001</v>
+        <v>2.14</v>
       </c>
       <c r="AO6">
-        <v>3190</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="AQ6">
-        <v>3190</v>
+        <v>0.5420560747663551</v>
       </c>
     </row>
     <row r="7">
@@ -1204,7 +1210,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Promotion and Development Ltd (MUSE:PAD.N0000)</t>
+          <t>The Bee Equity Partners Ltd (MUSE:FIDE.I0000)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1213,46 +1219,43 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0426</v>
-      </c>
-      <c r="E7">
-        <v>0.0444</v>
+        <v>-0.425</v>
       </c>
       <c r="G7">
-        <v>0.2441860465116279</v>
+        <v>0.4147286821705426</v>
       </c>
       <c r="H7">
-        <v>0.2441860465116279</v>
+        <v>0.4147286821705426</v>
       </c>
       <c r="I7">
-        <v>0.1959302325581395</v>
+        <v>-0.5155038759689923</v>
       </c>
       <c r="J7">
-        <v>0.1779518195521103</v>
+        <v>-0.5155038759689923</v>
       </c>
       <c r="K7">
-        <v>8.18</v>
+        <v>-1.91</v>
       </c>
       <c r="L7">
-        <v>0.4755813953488372</v>
+        <v>-7.403100775193798</v>
       </c>
       <c r="M7">
-        <v>5.407100000000001</v>
+        <v>0.11466</v>
       </c>
       <c r="N7">
-        <v>0.04244191522762952</v>
+        <v>0.02167485822306238</v>
       </c>
       <c r="O7">
-        <v>0.6610146699266505</v>
+        <v>-0.06003141361256545</v>
       </c>
       <c r="P7">
-        <v>5.407100000000001</v>
+        <v>0.11466</v>
       </c>
       <c r="Q7">
-        <v>0.04244191522762952</v>
+        <v>0.02167485822306238</v>
       </c>
       <c r="R7">
-        <v>0.6610146699266505</v>
+        <v>-0.06003141361256545</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1261,67 +1264,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.12</v>
+        <v>2.8</v>
       </c>
       <c r="V7">
-        <v>0.0009419152276295133</v>
+        <v>0.5293005671077504</v>
       </c>
       <c r="W7">
-        <v>0.02607586866432898</v>
+        <v>-0.119375</v>
       </c>
       <c r="X7">
-        <v>0.06845396461805626</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="Y7">
-        <v>-0.04237809595372729</v>
+        <v>-0.1631214840940926</v>
       </c>
       <c r="Z7">
-        <v>0.04936981724556605</v>
+        <v>0.01784232365145228</v>
       </c>
       <c r="AA7">
-        <v>0.008785448809803632</v>
+        <v>-0.009197786998616874</v>
       </c>
       <c r="AB7">
-        <v>0.059317621248736</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="AC7">
-        <v>-0.05053217243893238</v>
+        <v>-0.05294427109270947</v>
       </c>
       <c r="AD7">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>48.38</v>
+        <v>-2.8</v>
       </c>
       <c r="AH7">
-        <v>0.2757248436611711</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.1264337851929093</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.2752304016384117</v>
+        <v>-1.124497991967871</v>
       </c>
       <c r="AK7">
-        <v>0.1261604255763012</v>
+        <v>-0.2772277227722772</v>
       </c>
       <c r="AL7">
-        <v>2.48</v>
+        <v>0.001</v>
       </c>
       <c r="AM7">
-        <v>2.48</v>
+        <v>0.001</v>
+      </c>
+      <c r="AN7">
+        <v>-0</v>
       </c>
       <c r="AO7">
-        <v>1.358870967741935</v>
+        <v>-133</v>
+      </c>
+      <c r="AP7">
+        <v>21.875</v>
       </c>
       <c r="AQ7">
-        <v>1.358870967741935</v>
+        <v>-133</v>
       </c>
     </row>
     <row r="8">
@@ -1347,25 +1356,25 @@
         <v>-0</v>
       </c>
       <c r="I8">
-        <v>1.189349112426035</v>
+        <v>1.102389078498293</v>
       </c>
       <c r="J8">
-        <v>1.189349112426035</v>
+        <v>1.102389078498293</v>
       </c>
       <c r="K8">
-        <v>-2.41</v>
+        <v>-3.22</v>
       </c>
       <c r="L8">
-        <v>1.42603550295858</v>
+        <v>1.098976109215017</v>
       </c>
       <c r="M8">
-        <v>2.05</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.05024509803921569</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>-0.850622406639004</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1377,37 +1386,34 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.196</v>
+        <v>0.619</v>
       </c>
       <c r="V8">
-        <v>0.004803921568627452</v>
+        <v>0.01513447432762836</v>
       </c>
       <c r="W8">
-        <v>-0.04373865698729583</v>
+        <v>-0.06110056925996205</v>
       </c>
       <c r="X8">
-        <v>0.05641248386858631</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="Y8">
-        <v>-0.1001511408558821</v>
+        <v>-0.1048470533540546</v>
       </c>
       <c r="Z8">
-        <v>-0.03102625298329355</v>
+        <v>-0.05580527197927777</v>
       </c>
       <c r="AA8">
-        <v>-0.03690104644758582</v>
+        <v>-0.06151912235258265</v>
       </c>
       <c r="AB8">
-        <v>0.05641248386858631</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="AC8">
-        <v>-0.09331353031617214</v>
+        <v>-0.1052656064466753</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1419,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>-0.196</v>
+        <v>-0.619</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1428,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-0.004827110629494632</v>
+        <v>-0.0153670464983491</v>
       </c>
       <c r="AK8">
-        <v>-0.003733048910559195</v>
+        <v>-0.012689366761649</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>-0.016</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="AQ8">
-        <v>125.625</v>
+        <v>45.49295774647888</v>
       </c>
     </row>
     <row r="9">
@@ -1451,7 +1457,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bravura Holdings Limited (NMSE:CMB)</t>
+          <t>The Mauritius Development Investment Trust Company Limited (MUSE:MDIT.N0000)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1460,106 +1466,109 @@
         </is>
       </c>
       <c r="G9">
-        <v>0.4137291280148423</v>
+        <v>-0</v>
       </c>
       <c r="H9">
-        <v>0.4137291280148423</v>
+        <v>-0</v>
       </c>
       <c r="I9">
-        <v>-0.04671430974282244</v>
+        <v>1.043329532497149</v>
       </c>
       <c r="J9">
-        <v>-0.04671430974282244</v>
+        <v>1.043329532497149</v>
       </c>
       <c r="K9">
-        <v>-0.727</v>
+        <v>-9.15</v>
       </c>
       <c r="L9">
-        <v>-0.1348794063079777</v>
+        <v>1.043329532497149</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>2.34</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.09322709163346612</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-0.2557377049180328</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>2.34</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.09322709163346612</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>-0.2557377049180328</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>1.18</v>
+        <v>0.649</v>
       </c>
       <c r="V9">
-        <v>0.04591439688715953</v>
+        <v>0.02585657370517928</v>
+      </c>
+      <c r="W9">
+        <v>-0.2293233082706767</v>
       </c>
       <c r="X9">
-        <v>0.05757426347981569</v>
+        <v>0.0437464840940926</v>
+      </c>
+      <c r="Y9">
+        <v>-0.2730697923647693</v>
       </c>
       <c r="Z9">
-        <v>12.71374399568979</v>
+        <v>-0.204739115209525</v>
       </c>
       <c r="AA9">
-        <v>-0.5939137750056019</v>
+        <v>-0.2136103653554337</v>
       </c>
       <c r="AB9">
-        <v>0.05708088762627256</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="AC9">
-        <v>-0.6509946626318746</v>
+        <v>-0.2573568494495263</v>
       </c>
       <c r="AD9">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.4239506475690651</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.9439506475690651</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>-0.2360493524309348</v>
+        <v>-0.649</v>
       </c>
       <c r="AH9">
-        <v>0.03542832893121235</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.0266322074803421</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>-0.009269942268501431</v>
+        <v>-0.02654288168173081</v>
       </c>
       <c r="AK9">
-        <v>-0.006889145821475256</v>
+        <v>-0.02491267129860658</v>
       </c>
       <c r="AL9">
-        <v>0.036</v>
+        <v>0.058</v>
       </c>
       <c r="AM9">
-        <v>-0.266</v>
-      </c>
-      <c r="AN9">
-        <v>-9.454545454545457</v>
+        <v>0.058</v>
       </c>
       <c r="AO9">
-        <v>-11.55555555555556</v>
-      </c>
-      <c r="AP9">
-        <v>4.291806407835179</v>
+        <v>-157.7586206896552</v>
       </c>
       <c r="AQ9">
-        <v>1.56390977443609</v>
+        <v>-157.7586206896552</v>
       </c>
     </row>
     <row r="10">
@@ -1570,7 +1579,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Mauritius Development Investment Trust Company Limited (MUSE:MDIT.N0000)</t>
+          <t>EPE Capital Partners Ltd (JSE:EPE)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1585,16 +1594,16 @@
         <v>-0</v>
       </c>
       <c r="I10">
-        <v>1.114886731391586</v>
+        <v>1.015555555555556</v>
       </c>
       <c r="J10">
-        <v>1.114886731391586</v>
+        <v>1.015555555555556</v>
       </c>
       <c r="K10">
-        <v>-6.92</v>
+        <v>-46.6</v>
       </c>
       <c r="L10">
-        <v>1.119741100323625</v>
+        <v>1.035555555555556</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1618,46 +1627,67 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.755</v>
+        <v>0.461</v>
       </c>
       <c r="V10">
-        <v>0.01641304347826087</v>
+        <v>0.006557610241820768</v>
+      </c>
+      <c r="W10">
+        <v>-0.3686708860759494</v>
       </c>
       <c r="X10">
-        <v>0.05894980899149548</v>
+        <v>0.0482029673492245</v>
+      </c>
+      <c r="Y10">
+        <v>-0.4168738534251739</v>
+      </c>
+      <c r="Z10">
+        <v>-0.3315234608102433</v>
+      </c>
+      <c r="AA10">
+        <v>-0.3366804924228471</v>
       </c>
       <c r="AB10">
-        <v>0.05719491864439059</v>
+        <v>0.04557574739763805</v>
+      </c>
+      <c r="AC10">
+        <v>-0.3822562398204851</v>
       </c>
       <c r="AD10">
-        <v>3.69</v>
+        <v>10.7</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>3.69</v>
+        <v>10.7</v>
       </c>
       <c r="AG10">
-        <v>2.935</v>
+        <v>10.239</v>
       </c>
       <c r="AH10">
-        <v>0.07426041457033608</v>
+        <v>0.1320987654320988</v>
       </c>
       <c r="AI10">
-        <v>0.08465244322092223</v>
+        <v>0.09780621572212064</v>
       </c>
       <c r="AJ10">
-        <v>0.05997752120159395</v>
+        <v>0.1271309551894113</v>
       </c>
       <c r="AK10">
-        <v>0.06851873467958446</v>
+        <v>0.09398837881750335</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.609</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.609</v>
+      </c>
+      <c r="AO10">
+        <v>-75.04105090311988</v>
+      </c>
+      <c r="AQ10">
+        <v>-75.04105090311988</v>
       </c>
     </row>
   </sheetData>
